--- a/Project Outputs for moveWiFi/BOM_moveWiFi_1.xlsx
+++ b/Project Outputs for moveWiFi/BOM_moveWiFi_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\AltiumDesigner\MoveWiFi\Project Outputs for moveWiFi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF36A92F-3E4C-4B0A-AA50-28B6CF42452C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="16170" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="16170" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moveWiFi_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>Comment</t>
   </si>
@@ -362,26 +363,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L=6   mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L=20 mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L=15 mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>current pay 0706：350+167+58+9.25+9.5+20.39+43.1 = 657.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=28 mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=10 mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺帽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L=8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;10cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nano Pi Zero </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>散热片使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm '2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">battery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空中接头</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxin *5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxin *30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxin*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxin *100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +729,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,18 +762,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1681691</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>137367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -637,18 +806,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1689679</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>23572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -675,18 +850,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>357186</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>140358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1148952</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>137591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -974,11 +1155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1478,7 +1659,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1489,13 +1670,16 @@
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
+      <c r="G24" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
@@ -1510,6 +1694,9 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
+      <c r="G25" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
@@ -1520,35 +1707,97 @@
         <v>90</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
+      <c r="G26" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E29">
+      <c r="A29" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E32">
         <v>1691.24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>